--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8833,11 +8833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
@@ -8942,7 +8941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10461,7 +10460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13125,7 +13124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13519,7 +13518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13708,7 +13707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14113,7 +14112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15122,7 +15121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18461,7 +18460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18825,7 +18824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -19142,7 +19141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -19281,7 +19280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19420,7 +19419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -19820,7 +19819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -20059,7 +20058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -20118,7 +20117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -20168,7 +20167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -20304,7 +20303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:30" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:30" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -20422,7 +20421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:30" s="2" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -20564,7 +20563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -20620,7 +20619,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -20652,7 +20651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -20684,7 +20683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -20713,7 +20712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -20742,7 +20741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -20774,7 +20773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -20806,7 +20805,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -20838,7 +20837,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -20879,7 +20878,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20917,7 +20916,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -20958,7 +20957,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -21203,7 +21202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -21285,7 +21284,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="181" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -21382,7 +21381,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="183" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21424,7 +21423,7 @@
       </c>
       <c r="AB183"/>
     </row>
-    <row r="184" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21463,7 +21462,7 @@
       </c>
       <c r="AB184"/>
     </row>
-    <row r="185" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21499,7 +21498,7 @@
       </c>
       <c r="AB185"/>
     </row>
-    <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21560,7 +21559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21592,7 +21591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21733,7 +21732,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21774,7 +21773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21818,7 +21817,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="196" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21980,7 +21979,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -22018,7 +22017,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="198" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -22047,7 +22046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22088,7 +22087,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="200" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22339,7 +22338,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="204" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22380,7 +22379,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="205" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22406,7 +22405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22441,7 +22440,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="207" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -22470,7 +22469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -22588,7 +22587,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -22635,7 +22634,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22676,7 +22675,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22720,7 +22719,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22749,7 +22748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22858,7 +22857,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22970,7 +22969,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -22996,7 +22995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23031,7 +23030,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -23075,7 +23074,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -23096,7 +23095,7 @@
       </c>
       <c r="AB221"/>
     </row>
-    <row r="222" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23143,7 +23142,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23181,7 +23180,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23207,7 +23206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23316,7 +23315,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23345,7 +23344,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23460,7 +23459,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23489,7 +23488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23518,7 +23517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23559,7 +23558,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23588,7 +23587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23703,7 +23702,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="236" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -23747,7 +23746,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -23859,7 +23858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -23888,7 +23887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -23991,7 +23990,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24015,7 +24014,7 @@
       </c>
       <c r="AB242"/>
     </row>
-    <row r="243" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24039,7 +24038,7 @@
       </c>
       <c r="AB243"/>
     </row>
-    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24077,7 +24076,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24115,7 +24114,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="246" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24136,7 +24135,7 @@
       </c>
       <c r="AB246"/>
     </row>
-    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24508,7 +24507,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -24691,7 +24690,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -24720,7 +24719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -24761,7 +24760,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -24864,7 +24863,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25180,7 +25179,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -25209,7 +25208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -25244,7 +25243,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="269" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -25397,7 +25396,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -25420,7 +25419,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -25535,7 +25534,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -25582,7 +25581,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="274" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -25608,7 +25607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -25637,7 +25636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -25746,7 +25745,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -25778,7 +25777,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="279" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -25816,7 +25815,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -25993,7 +25992,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -26176,7 +26175,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -26211,7 +26210,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -26240,7 +26239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -26355,7 +26354,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -26399,7 +26398,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="291" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -26434,7 +26433,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="292" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -26475,7 +26474,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="293" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -26504,7 +26503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -26530,7 +26529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -26559,7 +26558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -26600,7 +26599,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="297" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -26786,7 +26785,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="300" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -27114,7 +27113,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="305" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -27158,7 +27157,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -27196,7 +27195,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -27382,7 +27381,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -27423,7 +27422,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -27538,7 +27537,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -27576,7 +27575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -27759,7 +27758,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -27800,7 +27799,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -27841,7 +27840,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -27882,7 +27881,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -27991,7 +27990,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -28020,7 +28019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -28061,7 +28060,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -28247,7 +28246,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -28288,7 +28287,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -28317,7 +28316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -28343,7 +28342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -28493,7 +28492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -28522,7 +28521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -28625,7 +28624,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="336" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -28663,7 +28662,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="337" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28727,7 +28726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28827,7 +28826,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28859,7 +28858,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28888,7 +28887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28914,7 +28913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28952,7 +28951,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28990,7 +28989,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -29022,7 +29021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -29060,7 +29059,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -29086,7 +29085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -29124,7 +29123,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="350" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -29165,7 +29164,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="351" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -29283,7 +29282,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="353" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29321,7 +29320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="354" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29362,7 +29361,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="355" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29403,7 +29402,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29559,7 +29558,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="359" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -29588,7 +29587,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="360" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -29617,7 +29616,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="361" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -29649,7 +29648,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="362" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -29681,7 +29680,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="363" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -29914,7 +29913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="367" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -29943,7 +29942,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="368" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -29975,7 +29974,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="369" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -30007,7 +30006,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="370" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -30039,7 +30038,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="371" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -30136,7 +30135,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="373" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -30168,7 +30167,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="374" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -30197,7 +30196,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="375" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -30229,7 +30228,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="376" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -30261,7 +30260,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="377" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -30361,7 +30360,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="379" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -30390,7 +30389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -30487,7 +30486,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="382" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -30581,7 +30580,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="384" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -30610,7 +30609,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="385" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -30639,7 +30638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -30668,7 +30667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -30697,7 +30696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -30726,7 +30725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -30758,7 +30757,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="390" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -30923,7 +30922,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="393" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -31059,7 +31058,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="395" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -31088,7 +31087,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="396" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -31185,7 +31184,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="398" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -31214,7 +31213,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="399" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -31243,7 +31242,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="400" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -31308,7 +31307,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="401" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -31405,7 +31404,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="403" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -31434,7 +31433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -31463,7 +31462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -31489,7 +31488,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="406" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -31518,7 +31517,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="407" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -31547,7 +31546,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="408" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -31576,7 +31575,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="409" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -31605,7 +31604,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="410" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -31634,7 +31633,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="411" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -31663,7 +31662,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="412" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -31692,7 +31691,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="413" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -31789,7 +31788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="415" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -31818,7 +31817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -31847,7 +31846,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="417" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -31876,7 +31875,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="418" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -31973,7 +31972,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="420" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -32002,7 +32001,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="421" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -32031,7 +32030,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="422" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -32060,7 +32059,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="423" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -32089,7 +32088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -32184,20 +32183,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD425">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="H"/>
-        <filter val="L"/>
-        <filter val="M"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD425"/>
   <hyperlinks>
     <hyperlink ref="AC159" r:id="rId1"/>
     <hyperlink ref="B160" r:id="rId2"/>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="2199">
   <si>
     <t>url</t>
   </si>
@@ -8436,6 +8436,9 @@
   </si>
   <si>
     <t>publication_year</t>
+  </si>
+  <si>
+    <t>referenced</t>
   </si>
 </sst>
 </file>
@@ -8836,9 +8839,9 @@
   <dimension ref="A1:AD425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F428" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14710,6 +14713,9 @@
       <c r="B83" s="8" t="s">
         <v>2196</v>
       </c>
+      <c r="F83" t="s">
+        <v>2198</v>
+      </c>
       <c r="R83" s="9"/>
       <c r="Z83" t="s">
         <v>43</v>
@@ -15773,7 +15779,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
         <v>683</v>
       </c>
       <c r="C98" t="s">
@@ -15784,6 +15790,9 @@
       </c>
       <c r="E98" t="s">
         <v>685</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1928</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>439</v>
@@ -21388,8 +21397,8 @@
       <c r="C183" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>1926</v>
+      <c r="F183" t="s">
+        <v>2198</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>28</v>
@@ -21430,8 +21439,8 @@
       <c r="C184" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>1926</v>
+      <c r="F184" t="s">
+        <v>2198</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>28</v>
@@ -21469,8 +21478,8 @@
       <c r="C185" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>1926</v>
+      <c r="F185" t="s">
+        <v>2198</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>28</v>
@@ -23081,8 +23090,8 @@
       <c r="B221" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>1926</v>
+      <c r="F221" t="s">
+        <v>2198</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>28</v>
@@ -23997,8 +24006,8 @@
       <c r="B242" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>1926</v>
+      <c r="F242" t="s">
+        <v>2198</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>28</v>
@@ -24021,8 +24030,8 @@
       <c r="B243" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>1926</v>
+      <c r="F243" t="s">
+        <v>2198</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>28</v>
@@ -24121,8 +24130,8 @@
       <c r="B246" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="F246" s="2" t="s">
-        <v>1926</v>
+      <c r="F246" t="s">
+        <v>2198</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>28</v>
@@ -32261,9 +32270,10 @@
     <hyperlink ref="B82" r:id="rId74"/>
     <hyperlink ref="B83" r:id="rId75"/>
     <hyperlink ref="B159" r:id="rId76"/>
+    <hyperlink ref="B98" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="25476" windowHeight="15300"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="25470" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AD$425</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6312" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="2207">
   <si>
     <t>url</t>
   </si>
@@ -8439,6 +8440,30 @@
   </si>
   <si>
     <t>referenced</t>
+  </si>
+  <si>
+    <t>threatened_species</t>
+  </si>
+  <si>
+    <t>new_species_science</t>
+  </si>
+  <si>
+    <t>new_species_region</t>
+  </si>
+  <si>
+    <t>bias_north_south</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>12 mammal, 199 ground-dwelling beetles, 240 flying-beetles species</t>
+  </si>
+  <si>
+    <t>multispecies</t>
   </si>
 </sst>
 </file>
@@ -8836,23 +8861,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD425"/>
+  <dimension ref="A1:AJ425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F428" sqref="F428"/>
+      <selection activeCell="C176" sqref="A176:XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="18.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1102</v>
       </c>
@@ -8943,8 +8966,26 @@
       <c r="AD1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8978,8 +9019,11 @@
       <c r="AD2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9013,8 +9057,11 @@
       <c r="AD3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9078,8 +9125,11 @@
       <c r="AD4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9161,14 +9211,32 @@
       <c r="AB5" t="s">
         <v>62</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="AD5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9250,14 +9318,32 @@
       <c r="AB6" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="8" t="s">
         <v>78</v>
       </c>
       <c r="AD6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9306,8 +9392,11 @@
       <c r="AD7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9368,8 +9457,11 @@
       <c r="AD8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9417,8 +9509,12 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE9" s="2"/>
+      <c r="AJ9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9506,8 +9602,26 @@
       <c r="AD10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9595,8 +9709,26 @@
       <c r="AD11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9684,8 +9816,26 @@
       <c r="AD12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9773,8 +9923,26 @@
       <c r="AD13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9850,8 +10018,26 @@
       <c r="AD14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9900,8 +10086,11 @@
       <c r="AD15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9953,8 +10142,11 @@
       <c r="AD16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10042,8 +10234,26 @@
       <c r="AD17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE17" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10131,8 +10341,26 @@
       <c r="AD18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE18" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10184,8 +10412,11 @@
       <c r="AD19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10273,8 +10504,26 @@
       <c r="AD20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10362,8 +10611,26 @@
       <c r="AD21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE21" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10412,8 +10679,11 @@
       <c r="AD22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10462,8 +10732,11 @@
       <c r="AD23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10527,8 +10800,11 @@
       <c r="AD24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10616,8 +10892,26 @@
       <c r="AD25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE25" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10705,8 +10999,26 @@
       <c r="AD26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10755,8 +11067,11 @@
       <c r="AD27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10844,8 +11159,26 @@
       <c r="AD28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE28" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10930,8 +11263,26 @@
       <c r="AD29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE29" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11019,8 +11370,26 @@
       <c r="AD30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE30" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11108,8 +11477,26 @@
       <c r="AD31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE31" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11197,8 +11584,26 @@
       <c r="AD32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE32" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11247,8 +11652,11 @@
       <c r="AD33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11297,8 +11705,11 @@
       <c r="AD34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11347,8 +11758,11 @@
       <c r="AD35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11415,8 +11829,11 @@
       <c r="AD36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11504,8 +11921,26 @@
       <c r="AD37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ37" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11593,8 +12028,26 @@
       <c r="AD38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE38" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11638,7 +12091,7 @@
         <v>227</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
+        <v>2205</v>
       </c>
       <c r="Q39" t="s">
         <v>326</v>
@@ -11682,8 +12135,26 @@
       <c r="AD39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE39" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11771,8 +12242,26 @@
       <c r="AD40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE40" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11860,8 +12349,26 @@
       <c r="AD41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE41" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11910,8 +12417,11 @@
       <c r="AD42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11960,8 +12470,11 @@
       <c r="AD43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12049,8 +12562,26 @@
       <c r="AD44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE44" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ44" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12099,8 +12630,11 @@
       <c r="AD45" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12149,8 +12683,11 @@
       <c r="AD46" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12235,8 +12772,26 @@
       <c r="AD47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ47" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12324,8 +12879,26 @@
       <c r="AD48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE48" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ48" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12413,8 +12986,26 @@
       <c r="AD49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE49" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ49" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12460,8 +13051,11 @@
       <c r="AD50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12510,8 +13104,11 @@
       <c r="AD51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12599,8 +13196,26 @@
       <c r="AD52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE52" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ52" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12673,8 +13288,11 @@
       <c r="AD53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ53" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12762,8 +13380,26 @@
       <c r="AD54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ54" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12851,8 +13487,26 @@
       <c r="AD55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE55" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ55" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12898,8 +13552,11 @@
       <c r="AD56" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12987,8 +13644,26 @@
       <c r="AD57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE57" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ57" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13037,8 +13712,11 @@
       <c r="AD58" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13126,8 +13804,26 @@
       <c r="AD59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE59" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ59" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13176,8 +13872,11 @@
       <c r="AD60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13265,8 +13964,26 @@
       <c r="AD61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ61" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13354,8 +14071,26 @@
       <c r="AD62" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ62" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13431,8 +14166,26 @@
       <c r="AD63" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ63" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13520,8 +14273,26 @@
       <c r="AD64" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE64" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ64" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13570,8 +14341,11 @@
       <c r="AD65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13659,8 +14433,26 @@
       <c r="AD66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ66" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13709,8 +14501,11 @@
       <c r="AD67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ67" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13759,8 +14554,11 @@
       <c r="AD68" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ68" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13836,8 +14634,26 @@
       <c r="AD69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE69" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ69" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13925,8 +14741,26 @@
       <c r="AD70" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ70" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13975,8 +14809,11 @@
       <c r="AD71" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14064,8 +14901,26 @@
       <c r="AD72" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE72" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ72" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14114,8 +14969,11 @@
       <c r="AD73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14164,8 +15022,11 @@
       <c r="AD74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ74" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14229,8 +15090,11 @@
       <c r="AD75" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14285,8 +15149,11 @@
       <c r="AD76" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ76" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14335,8 +15202,11 @@
       <c r="AD77" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14388,8 +15258,11 @@
       <c r="AD78" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14477,8 +15350,26 @@
       <c r="AD79" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ79" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14527,8 +15418,11 @@
       <c r="AD80" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14616,8 +15510,26 @@
       <c r="AD81" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE81" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ81" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14705,8 +15617,26 @@
       <c r="AD82" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE82" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ82" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14723,8 +15653,11 @@
       <c r="AA83" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ83" s="8" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14809,8 +15742,26 @@
       <c r="AD84" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE84" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ84" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14898,8 +15849,26 @@
       <c r="AD85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE85" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ85" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14987,8 +15956,26 @@
       <c r="AD86" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE86" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ86" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15076,8 +16063,26 @@
       <c r="AD87" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ87" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15126,8 +16131,11 @@
       <c r="AD88" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ88" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15182,8 +16190,11 @@
       <c r="AD89" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ89" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15271,8 +16282,26 @@
       <c r="AD90" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE90" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ90" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15321,8 +16350,11 @@
       <c r="AD91" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15410,8 +16442,26 @@
       <c r="AD92" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ92" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15499,8 +16549,26 @@
       <c r="AD93" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE93" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ93" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15549,8 +16617,11 @@
       <c r="AD94" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ94" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15635,8 +16706,26 @@
       <c r="AD95" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ95" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15724,8 +16813,26 @@
       <c r="AD96" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE96" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ96" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15774,8 +16881,11 @@
       <c r="AD97" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15824,8 +16934,11 @@
       <c r="AD98" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ98" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15913,8 +17026,26 @@
       <c r="AD99" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE99" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ99" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15963,8 +17094,11 @@
       <c r="AD100" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ100" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16052,8 +17186,26 @@
       <c r="AD101" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ101" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16141,8 +17293,26 @@
       <c r="AD102" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE102" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ102" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16194,8 +17364,11 @@
       <c r="AD103" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ103" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16283,8 +17456,26 @@
       <c r="AD104" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE104" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ104" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16372,8 +17563,26 @@
       <c r="AD105" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE105" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ105" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16461,8 +17670,26 @@
       <c r="AD106" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE106" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16511,8 +17738,11 @@
       <c r="AD107" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ107" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -16594,8 +17824,26 @@
       <c r="AD108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE108" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ108" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -16644,8 +17892,11 @@
       <c r="AD109" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ109" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -16730,8 +17981,26 @@
       <c r="AD110" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE110" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ110" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16783,8 +18052,11 @@
       <c r="AD111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ111" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16872,8 +18144,26 @@
       <c r="AD112" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ112" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16961,8 +18251,26 @@
       <c r="AD113" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE113" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ113" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17011,8 +18319,11 @@
       <c r="AD114" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ114" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17061,8 +18372,11 @@
       <c r="AD115" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ115" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17150,8 +18464,26 @@
       <c r="AD116" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE116" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ116" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17230,8 +18562,11 @@
       <c r="AD117" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ117" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17319,8 +18654,26 @@
       <c r="AD118" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE118" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ118" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17369,8 +18722,11 @@
       <c r="AD119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ119" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17455,8 +18811,26 @@
       <c r="AD120" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE120" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ120" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -17505,8 +18879,11 @@
       <c r="AD121" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ121" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -17588,8 +18965,26 @@
       <c r="AD122" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE122" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ122" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -17677,8 +19072,26 @@
       <c r="AD123" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE123" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ123" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -17760,8 +19173,26 @@
       <c r="AD124" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE124" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ124" s="8" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -17849,8 +19280,26 @@
       <c r="AD125" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE125" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ125" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -17932,8 +19381,26 @@
       <c r="AD126" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE126" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ126" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -17982,8 +19449,11 @@
       <c r="AD127" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ127" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18071,8 +19541,26 @@
       <c r="AD128" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE128" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ128" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18121,8 +19609,11 @@
       <c r="AD129" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ129" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18210,8 +19701,26 @@
       <c r="AD130" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE130" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ130" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18299,8 +19808,26 @@
       <c r="AD131" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE131" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ131" s="8" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18379,8 +19906,26 @@
       <c r="AD132" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE132" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ132" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18468,8 +20013,26 @@
       <c r="AD133" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE133" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH133" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ133" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18521,8 +20084,11 @@
       <c r="AD134" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ134" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18571,8 +20137,11 @@
       <c r="AD135" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ135" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18660,8 +20229,26 @@
       <c r="AD136" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE136" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ136" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18749,8 +20336,26 @@
       <c r="AD137" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE137" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ137" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18832,8 +20437,26 @@
       <c r="AD138" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ138" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18882,8 +20505,11 @@
       <c r="AD139" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ139" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18971,8 +20597,26 @@
       <c r="AD140" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ140" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -19060,8 +20704,26 @@
       <c r="AD141" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE141" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ141" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -19149,8 +20811,26 @@
       <c r="AD142" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE142" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ142" s="8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -19199,8 +20879,11 @@
       <c r="AD143" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ143" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -19288,8 +20971,26 @@
       <c r="AD144" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE144" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ144" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19338,8 +21039,11 @@
       <c r="AD145" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ145" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -19427,8 +21131,26 @@
       <c r="AD146" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE146" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ146" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -19477,8 +21199,11 @@
       <c r="AD147" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ147" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -19560,8 +21285,26 @@
       <c r="AD148" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE148" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ148" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -19587,7 +21330,7 @@
         <v>43</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K149" t="s">
         <v>52</v>
@@ -19649,8 +21392,11 @@
       <c r="AD149" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ149" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -19738,8 +21484,26 @@
       <c r="AD150" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE150" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ150" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19827,12 +21591,30 @@
       <c r="AD151" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE151" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ151" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="8" t="s">
         <v>1021</v>
       </c>
       <c r="C152" t="s">
@@ -19877,8 +21659,11 @@
       <c r="AD152" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ152" s="8" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19927,8 +21712,11 @@
       <c r="AD153" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ153" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -20016,8 +21804,26 @@
       <c r="AD154" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE154" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ154" s="8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -20066,8 +21872,11 @@
       <c r="AD155" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ155" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -20125,8 +21934,11 @@
       <c r="AD156" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ156" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -20175,8 +21987,11 @@
       <c r="AD157" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ157" s="8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -20225,8 +22040,11 @@
       <c r="AD158" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="159" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ158" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -20311,8 +22129,26 @@
       <c r="AD159" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE159" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AF159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI159" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ159" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -20361,8 +22197,11 @@
       <c r="AD160" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="161" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ160" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -20429,8 +22268,12 @@
       <c r="AD161" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="162" spans="1:30" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE161"/>
+      <c r="AJ161" s="5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -20482,8 +22325,12 @@
       <c r="AD162" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="163" spans="1:30" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE162"/>
+      <c r="AJ162" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -20571,8 +22418,26 @@
       <c r="AD163" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE163" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ163" s="5" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -20627,8 +22492,11 @@
       <c r="AB164" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ164" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -20659,8 +22527,11 @@
       <c r="J165" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ165" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -20691,8 +22562,11 @@
       <c r="J166" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ166" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -20720,8 +22594,11 @@
       <c r="J167" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ167" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -20749,8 +22626,11 @@
       <c r="J168" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ168" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -20781,8 +22661,11 @@
       <c r="J169" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ169" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -20813,8 +22696,11 @@
       <c r="J170" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="171" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ170" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -20845,8 +22731,11 @@
       <c r="J171" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ171" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -20886,8 +22775,11 @@
       <c r="AB172" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ172" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20924,8 +22816,11 @@
       <c r="AB173" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ173" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -20965,8 +22860,11 @@
       <c r="AB174" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ174" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -20994,8 +22892,11 @@
       <c r="I175" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AJ175" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -21068,8 +22969,11 @@
       <c r="AB176" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ176" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -21142,8 +23046,11 @@
       <c r="AB177" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ177" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -21211,7 +23118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -21239,8 +23146,11 @@
       <c r="I179" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ179" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -21292,8 +23202,11 @@
       <c r="AB180" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ180" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -21319,7 +23232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -21389,8 +23302,11 @@
       <c r="AB182" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ182" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21432,7 +23348,7 @@
       </c>
       <c r="AB183"/>
     </row>
-    <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21471,7 +23387,7 @@
       </c>
       <c r="AB184"/>
     </row>
-    <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21507,7 +23423,7 @@
       </c>
       <c r="AB185"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21542,7 +23458,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21568,7 +23484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21600,7 +23516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21649,8 +23565,11 @@
       <c r="AB189" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ189" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21693,8 +23612,11 @@
       <c r="AB190" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ190" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21740,8 +23662,11 @@
       <c r="AB191" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ191" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21781,8 +23706,11 @@
       <c r="AB192" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ192" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21825,8 +23753,11 @@
       <c r="AB193" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ193" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21869,8 +23800,11 @@
       <c r="AB194" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ194" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21943,8 +23877,11 @@
       <c r="AB195" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ195" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21987,8 +23924,11 @@
       <c r="AB196" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ196" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -22026,7 +23966,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -22054,8 +23994,11 @@
       <c r="I198" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ198" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22095,8 +24038,11 @@
       <c r="AB199" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ199" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22124,8 +24070,11 @@
       <c r="I200" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ200" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22198,8 +24147,11 @@
       <c r="AB201" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ201" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22272,8 +24224,11 @@
       <c r="AB202" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ202" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -22346,8 +24301,11 @@
       <c r="AB203" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ203" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22387,8 +24345,11 @@
       <c r="AB204" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ204" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22414,7 +24375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22449,7 +24410,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -22477,8 +24438,11 @@
       <c r="I207" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ207" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -22521,8 +24485,11 @@
       <c r="AB208" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ208" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -22595,8 +24562,11 @@
       <c r="AB209" t="s">
         <v>2144</v>
       </c>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ209" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -22642,8 +24612,11 @@
       <c r="AB210" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ210" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22683,8 +24656,11 @@
       <c r="AB211" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ211" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22727,8 +24703,11 @@
       <c r="AB212" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ212" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22756,8 +24735,11 @@
       <c r="I213" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ213" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22792,7 +24774,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -22865,8 +24847,11 @@
       <c r="AB215" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ215" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22903,8 +24888,11 @@
       <c r="AB216" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ216" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -22977,8 +24965,11 @@
       <c r="AB217" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ217" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23004,7 +24995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23039,7 +25030,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -23082,8 +25073,11 @@
       <c r="AB220" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="221" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ220" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -23103,8 +25097,11 @@
         <v>163</v>
       </c>
       <c r="AB221"/>
-    </row>
-    <row r="222" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ221" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23150,8 +25147,11 @@
       <c r="AB222" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ222" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23188,8 +25188,11 @@
       <c r="AB223" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="224" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ223" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23215,7 +25218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23249,8 +25252,11 @@
       <c r="AB225" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ225" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23323,8 +25329,11 @@
       <c r="AB226" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ226" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23353,7 +25362,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23393,8 +25402,11 @@
       <c r="AB228" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ228" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -23467,8 +25479,11 @@
       <c r="AB229" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ229" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23496,8 +25511,11 @@
       <c r="I230" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ230" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23525,8 +25543,11 @@
       <c r="I231" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ231" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23566,8 +25587,11 @@
       <c r="AB232" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ232" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23595,8 +25619,11 @@
       <c r="I233" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ233" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23636,8 +25663,11 @@
       <c r="AB234" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ234" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23710,8 +25740,11 @@
       <c r="AB235" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="236" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ235" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -23754,8 +25787,11 @@
       <c r="AB236" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ236" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -23795,8 +25831,11 @@
       <c r="AB237" t="s">
         <v>2152</v>
       </c>
-    </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ237" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -23866,8 +25905,11 @@
       <c r="AB238" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ238" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -23895,8 +25937,11 @@
       <c r="I239" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ239" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -23931,7 +25976,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="241" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -23999,7 +26044,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24022,8 +26067,11 @@
         <v>163</v>
       </c>
       <c r="AB242"/>
-    </row>
-    <row r="243" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ242" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24046,8 +26094,11 @@
         <v>163</v>
       </c>
       <c r="AB243"/>
-    </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ243" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24084,8 +26135,11 @@
       <c r="AB244" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ244" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24122,8 +26176,11 @@
       <c r="AB245" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="246" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ245" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24143,8 +26200,11 @@
         <v>163</v>
       </c>
       <c r="AB246"/>
-    </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ246" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24184,8 +26244,11 @@
       <c r="AB247" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ247" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24258,8 +26321,11 @@
       <c r="AB248" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ248" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -24332,8 +26398,11 @@
       <c r="AB249" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ249" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -24406,8 +26475,11 @@
       <c r="AB250" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ250" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -24480,8 +26552,11 @@
       <c r="AB251" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ251" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24515,8 +26590,11 @@
       <c r="AB252" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ252" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -24550,8 +26628,11 @@
       <c r="AB253" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ253" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -24624,8 +26705,11 @@
       <c r="AB254" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ254" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -24698,8 +26782,11 @@
       <c r="AB255" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ255" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -24727,8 +26814,11 @@
       <c r="I256" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ256" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -24768,8 +26858,11 @@
       <c r="AB257" t="s">
         <v>2158</v>
       </c>
-    </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ257" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -24797,8 +26890,11 @@
       <c r="I258" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ258" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -24871,8 +26967,11 @@
       <c r="AB259" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ259" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -24924,8 +27023,11 @@
       <c r="Y260" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ260" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -24968,8 +27070,11 @@
       <c r="AB261" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="262" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ261" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="262" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25039,8 +27144,11 @@
       <c r="AB262" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="263" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ262" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="263" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -25113,8 +27221,11 @@
       <c r="AB263" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ263" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -25187,8 +27298,11 @@
       <c r="AB264" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ264" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -25216,8 +27330,11 @@
       <c r="I265" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ265" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -25251,8 +27368,11 @@
       <c r="AB266" t="s">
         <v>2160</v>
       </c>
-    </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ266" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -25287,7 +27407,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -25360,8 +27480,11 @@
       <c r="AB268" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="269" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ268" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="269" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -25404,8 +27527,11 @@
       <c r="AB269" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ269" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -25427,8 +27553,11 @@
       <c r="J270" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ270" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -25468,8 +27597,11 @@
       <c r="AB271" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ271" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -25542,8 +27674,11 @@
       <c r="AB272" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ272" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -25589,8 +27724,11 @@
       <c r="AB273" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="274" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ273" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -25616,7 +27754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -25644,8 +27782,11 @@
       <c r="I275" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ275" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -25680,7 +27821,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="277" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -25753,8 +27894,11 @@
       <c r="AB277" t="s">
         <v>2164</v>
       </c>
-    </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ277" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -25785,8 +27929,11 @@
       <c r="Y278" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="279" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ278" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="279" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -25823,8 +27970,11 @@
       <c r="AB279" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ279" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -25853,7 +28003,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -25926,8 +28076,11 @@
       <c r="AB281" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ281" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -26000,8 +28153,11 @@
       <c r="AB282" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ282" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -26035,8 +28191,11 @@
       <c r="AB283" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ283" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -26109,8 +28268,11 @@
       <c r="AB284" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ284" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -26183,8 +28345,11 @@
       <c r="AB285" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ285" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -26219,7 +28384,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -26247,8 +28412,11 @@
       <c r="I287" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ287" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -26288,8 +28456,11 @@
       <c r="AB288" t="s">
         <v>2168</v>
       </c>
-    </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ288" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -26362,8 +28533,11 @@
       <c r="AB289" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ289" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -26406,8 +28580,11 @@
       <c r="AB290" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ290" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -26441,8 +28618,11 @@
       <c r="AB291" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ291" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -26482,8 +28662,11 @@
       <c r="AB292" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ292" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -26511,8 +28694,11 @@
       <c r="I293" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ293" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -26538,7 +28724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -26566,8 +28752,11 @@
       <c r="I295" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ295" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -26607,8 +28796,11 @@
       <c r="AB296" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ296" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -26645,8 +28837,11 @@
       <c r="AB297" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ297" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -26719,8 +28914,11 @@
       <c r="AB298" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ298" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -26793,8 +28991,11 @@
       <c r="AB299" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ299" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -26831,8 +29032,11 @@
       <c r="AB300" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ300" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -26900,7 +29104,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -26973,8 +29177,11 @@
       <c r="AB302" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ302" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -27047,8 +29254,11 @@
       <c r="AB303" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ303" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -27121,8 +29331,11 @@
       <c r="AB304" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="305" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ304" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="305" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -27165,8 +29378,11 @@
       <c r="AB305" t="s">
         <v>2172</v>
       </c>
-    </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ305" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -27203,8 +29419,11 @@
       <c r="AB306" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ306" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -27241,8 +29460,11 @@
       <c r="AB307" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ307" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -27315,8 +29537,11 @@
       <c r="AB308" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ308" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -27389,8 +29614,11 @@
       <c r="AB309" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ309" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -27430,8 +29658,11 @@
       <c r="AB310" t="s">
         <v>2176</v>
       </c>
-    </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ310" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -27471,8 +29702,11 @@
       <c r="AB311" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ311" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -27545,8 +29779,11 @@
       <c r="AB312" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ312" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -27583,8 +29820,11 @@
       <c r="AB313" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ313" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -27619,7 +29859,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="315" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -27692,8 +29932,11 @@
       <c r="AB315" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ315" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -27766,8 +30009,11 @@
       <c r="AB316" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ316" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -27807,8 +30053,11 @@
       <c r="AB317" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ317" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -27848,8 +30097,11 @@
       <c r="AB318" t="s">
         <v>2178</v>
       </c>
-    </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ318" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -27889,8 +30141,11 @@
       <c r="AB319" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ319" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -27924,8 +30179,11 @@
       <c r="P320" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ320" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -27998,8 +30256,11 @@
       <c r="AB321" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ321" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -28027,8 +30288,11 @@
       <c r="I322" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ322" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -28068,8 +30332,11 @@
       <c r="AB323" t="s">
         <v>2179</v>
       </c>
-    </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ323" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="324" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -28109,8 +30376,11 @@
       <c r="AB324" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ324" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -28183,8 +30453,11 @@
       <c r="AB325" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="326" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ325" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="326" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -28254,8 +30527,11 @@
       <c r="AB326" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ326" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -28295,8 +30571,11 @@
       <c r="AB327" t="s">
         <v>2181</v>
       </c>
-    </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ327" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -28324,8 +30603,11 @@
       <c r="I328" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ328" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -28351,7 +30633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -28388,8 +30670,11 @@
       <c r="AB330" t="s">
         <v>2182</v>
       </c>
-    </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ330" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -28426,8 +30711,11 @@
       <c r="AB331" t="s">
         <v>2183</v>
       </c>
-    </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ331" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -28500,8 +30788,11 @@
       <c r="AB332" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ332" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -28529,8 +30820,11 @@
       <c r="I333" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ333" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -28558,8 +30852,11 @@
       <c r="I334" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ334" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -28632,8 +30929,11 @@
       <c r="AB335" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="336" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ335" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="336" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -28670,8 +30970,11 @@
       <c r="AB336" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="337" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ336" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="337" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -28708,8 +31011,11 @@
       <c r="AB337" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ337" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28735,7 +31041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28763,8 +31069,11 @@
       <c r="I339" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ339" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -28834,8 +31143,11 @@
       <c r="AB340" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ340" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28866,8 +31178,11 @@
       <c r="P341" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ341" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28895,8 +31210,11 @@
       <c r="I342" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ342" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28922,7 +31240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28959,8 +31277,11 @@
       <c r="AB344" t="s">
         <v>2184</v>
       </c>
-    </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ344" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28997,8 +31318,11 @@
       <c r="AB345" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ345" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -29030,7 +31354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -29067,8 +31391,11 @@
       <c r="AB347" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ347" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -29094,7 +31421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -29131,8 +31458,11 @@
       <c r="AB349" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ349" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -29172,8 +31502,11 @@
       <c r="AB350" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ350" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -29216,8 +31549,11 @@
       <c r="AB351" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ351" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -29290,8 +31626,11 @@
       <c r="AB352" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ352" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="353" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29328,8 +31667,11 @@
       <c r="AB353" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ353" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="354" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29369,8 +31711,11 @@
       <c r="AB354" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ354" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="355" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29410,8 +31755,11 @@
       <c r="AB355" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ355" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="356" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29436,8 +31784,11 @@
       <c r="J356" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ356" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="357" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -29501,8 +31852,11 @@
       <c r="AB357" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ357" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="358" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -29566,8 +31920,11 @@
       <c r="AB358" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ358" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="359" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -29595,8 +31952,11 @@
       <c r="J359" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ359" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="360" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -29624,8 +31984,11 @@
       <c r="J360" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ360" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="361" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -29656,8 +32019,11 @@
       <c r="AB361" t="s">
         <v>2187</v>
       </c>
-    </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ361" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -29688,8 +32054,11 @@
       <c r="AB362" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ362" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -29717,8 +32086,11 @@
       <c r="J363" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ363" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="364" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -29782,8 +32154,11 @@
       <c r="AB364" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ364" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="365" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -29850,8 +32225,11 @@
       <c r="Y365" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ365" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="366" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -29921,8 +32299,11 @@
       <c r="AB366" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ366" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="367" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -29950,8 +32331,11 @@
       <c r="AB367" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ367" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="368" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -29982,8 +32366,11 @@
       <c r="AB368" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ368" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -30014,8 +32401,11 @@
       <c r="AB369" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ369" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="370" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -30046,8 +32436,11 @@
       <c r="AB370" t="s">
         <v>2192</v>
       </c>
-    </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ370" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="371" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -30075,8 +32468,11 @@
       <c r="I371" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ371" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -30143,8 +32539,11 @@
       <c r="Y372" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ372" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="373" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -30175,8 +32574,11 @@
       <c r="AB373" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ373" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="374" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -30204,8 +32606,11 @@
       <c r="J374" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ374" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="375" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -30236,8 +32641,11 @@
       <c r="AB375" t="s">
         <v>2193</v>
       </c>
-    </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ375" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="376" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -30268,8 +32676,11 @@
       <c r="AB376" t="s">
         <v>2192</v>
       </c>
-    </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ376" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="377" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -30300,8 +32711,11 @@
       <c r="AB377" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ377" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="378" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -30368,8 +32782,11 @@
       <c r="Y378" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ378" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="379" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -30397,8 +32814,11 @@
       <c r="I379" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ379" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="380" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -30426,8 +32846,11 @@
       <c r="I380" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ380" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="381" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -30494,8 +32917,11 @@
       <c r="Y381" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ381" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="382" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -30520,8 +32946,11 @@
       <c r="J382" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ382" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="383" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -30588,8 +33017,11 @@
       <c r="Y383" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ383" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="384" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -30617,8 +33049,11 @@
       <c r="J384" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ384" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="385" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -30646,8 +33081,11 @@
       <c r="I385" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ385" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="386" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -30675,8 +33113,11 @@
       <c r="I386" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ386" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="387" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -30704,8 +33145,11 @@
       <c r="I387" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ387" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="388" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -30733,8 +33177,11 @@
       <c r="I388" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ388" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="389" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -30765,8 +33212,11 @@
       <c r="AB389" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ389" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="390" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -30794,8 +33244,11 @@
       <c r="AB390" t="s">
         <v>2195</v>
       </c>
-    </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ390" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="391" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -30862,8 +33315,11 @@
       <c r="Y391" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ391" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="392" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -30930,8 +33386,11 @@
       <c r="Y392" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ392" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="393" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -30998,8 +33457,11 @@
       <c r="Y393" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ393" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="394" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -31066,8 +33528,11 @@
       <c r="Y394" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ394" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="395" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -31095,8 +33560,11 @@
       <c r="J395" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ395" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="396" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -31124,8 +33592,11 @@
       <c r="J396" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ396" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="397" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -31192,8 +33663,11 @@
       <c r="Y397" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ397" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="398" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -31221,8 +33695,11 @@
       <c r="J398" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ398" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="399" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -31250,8 +33727,11 @@
       <c r="J399" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AJ399" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="400" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -31315,8 +33795,11 @@
       <c r="Y400" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ400" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="401" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -31344,8 +33827,11 @@
       <c r="J401" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ401" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="402" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -31412,8 +33898,11 @@
       <c r="Y402" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ402" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="403" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -31441,8 +33930,11 @@
       <c r="I403" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ403" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="404" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -31470,8 +33962,11 @@
       <c r="I404" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ404" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="405" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -31496,8 +33991,11 @@
       <c r="J405" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ405" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="406" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -31525,8 +34023,11 @@
       <c r="J406" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ406" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="407" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -31554,8 +34055,11 @@
       <c r="J407" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ407" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="408" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -31583,8 +34087,11 @@
       <c r="J408" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ408" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="409" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -31612,8 +34119,11 @@
       <c r="J409" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ409" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="410" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -31641,8 +34151,11 @@
       <c r="J410" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ410" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="411" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -31670,8 +34183,11 @@
       <c r="J411" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ411" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="412" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -31699,8 +34215,11 @@
       <c r="J412" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ412" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="413" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -31728,8 +34247,11 @@
       <c r="J413" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ413" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="414" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -31796,8 +34318,11 @@
       <c r="Y414" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ414" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="415" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -31825,8 +34350,11 @@
       <c r="I415" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ415" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="416" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -31854,8 +34382,11 @@
       <c r="J416" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ416" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="417" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -31883,8 +34414,11 @@
       <c r="J417" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ417" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="418" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -31912,8 +34446,11 @@
       <c r="J418" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ418" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="419" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -31980,8 +34517,11 @@
       <c r="Y419" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ419" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="420" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -32009,8 +34549,11 @@
       <c r="J420" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ420" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="421" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -32038,8 +34581,11 @@
       <c r="J421" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ421" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="422" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -32067,8 +34613,11 @@
       <c r="J422" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ422" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="423" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -32096,8 +34645,11 @@
       <c r="I423" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ423" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="424" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -32125,8 +34677,11 @@
       <c r="J424" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ424" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="425" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -32189,6 +34744,9 @@
       </c>
       <c r="Y425" t="s">
         <v>266</v>
+      </c>
+      <c r="AJ425" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -32271,9 +34829,116 @@
     <hyperlink ref="B83" r:id="rId75"/>
     <hyperlink ref="B159" r:id="rId76"/>
     <hyperlink ref="B98" r:id="rId77"/>
+    <hyperlink ref="AC5" r:id="rId78"/>
+    <hyperlink ref="AC6" r:id="rId79"/>
+    <hyperlink ref="B152" r:id="rId80"/>
+    <hyperlink ref="AJ160" r:id="rId81"/>
+    <hyperlink ref="AJ161" r:id="rId82"/>
+    <hyperlink ref="AJ70" r:id="rId83"/>
+    <hyperlink ref="AJ20" r:id="rId84"/>
+    <hyperlink ref="AJ9" r:id="rId85"/>
+    <hyperlink ref="AJ13" r:id="rId86"/>
+    <hyperlink ref="AJ21" r:id="rId87"/>
+    <hyperlink ref="AJ30" r:id="rId88"/>
+    <hyperlink ref="AJ31" r:id="rId89"/>
+    <hyperlink ref="AJ38" r:id="rId90"/>
+    <hyperlink ref="AJ53" r:id="rId91"/>
+    <hyperlink ref="AJ54" r:id="rId92"/>
+    <hyperlink ref="AJ57" r:id="rId93"/>
+    <hyperlink ref="AJ61" r:id="rId94"/>
+    <hyperlink ref="AJ62" r:id="rId95"/>
+    <hyperlink ref="AJ66" r:id="rId96"/>
+    <hyperlink ref="AJ90" r:id="rId97"/>
+    <hyperlink ref="AJ99" r:id="rId98"/>
+    <hyperlink ref="AJ102" r:id="rId99"/>
+    <hyperlink ref="AJ104" r:id="rId100"/>
+    <hyperlink ref="AJ108" r:id="rId101"/>
+    <hyperlink ref="AJ112" r:id="rId102"/>
+    <hyperlink ref="AJ113" r:id="rId103"/>
+    <hyperlink ref="AJ116" r:id="rId104"/>
+    <hyperlink ref="AJ117" r:id="rId105"/>
+    <hyperlink ref="AJ123" r:id="rId106"/>
+    <hyperlink ref="AJ128" r:id="rId107"/>
+    <hyperlink ref="AJ130" r:id="rId108"/>
+    <hyperlink ref="AJ131" r:id="rId109"/>
+    <hyperlink ref="AJ141" r:id="rId110"/>
+    <hyperlink ref="AJ148" r:id="rId111"/>
+    <hyperlink ref="AJ151" r:id="rId112"/>
+    <hyperlink ref="AJ163" r:id="rId113"/>
+    <hyperlink ref="AJ12" r:id="rId114"/>
+    <hyperlink ref="AJ101" r:id="rId115"/>
+    <hyperlink ref="AJ8" r:id="rId116"/>
+    <hyperlink ref="AJ4" r:id="rId117"/>
+    <hyperlink ref="AJ14" r:id="rId118"/>
+    <hyperlink ref="AJ24" r:id="rId119"/>
+    <hyperlink ref="AJ47" r:id="rId120"/>
+    <hyperlink ref="AJ36" r:id="rId121"/>
+    <hyperlink ref="AJ63" r:id="rId122"/>
+    <hyperlink ref="AJ69" r:id="rId123"/>
+    <hyperlink ref="AJ76" r:id="rId124"/>
+    <hyperlink ref="AJ79" r:id="rId125"/>
+    <hyperlink ref="AJ105" r:id="rId126"/>
+    <hyperlink ref="AJ110" r:id="rId127"/>
+    <hyperlink ref="AJ122" r:id="rId128"/>
+    <hyperlink ref="AJ124" r:id="rId129"/>
+    <hyperlink ref="AJ126" r:id="rId130"/>
+    <hyperlink ref="AJ132" r:id="rId131"/>
+    <hyperlink ref="AJ142" r:id="rId132"/>
+    <hyperlink ref="AJ5" r:id="rId133"/>
+    <hyperlink ref="AJ40" r:id="rId134"/>
+    <hyperlink ref="AJ64" r:id="rId135"/>
+    <hyperlink ref="AJ84" r:id="rId136"/>
+    <hyperlink ref="AJ92" r:id="rId137"/>
+    <hyperlink ref="AJ149" r:id="rId138"/>
+    <hyperlink ref="AJ10" r:id="rId139"/>
+    <hyperlink ref="AJ18" r:id="rId140"/>
+    <hyperlink ref="AJ29" r:id="rId141"/>
+    <hyperlink ref="AJ49" r:id="rId142"/>
+    <hyperlink ref="AJ55" r:id="rId143"/>
+    <hyperlink ref="AJ59" r:id="rId144"/>
+    <hyperlink ref="AJ72" r:id="rId145"/>
+    <hyperlink ref="AJ120" r:id="rId146"/>
+    <hyperlink ref="AJ137" r:id="rId147"/>
+    <hyperlink ref="AJ144" r:id="rId148"/>
+    <hyperlink ref="AJ146" r:id="rId149"/>
+    <hyperlink ref="AJ26" r:id="rId150"/>
+    <hyperlink ref="AJ157" r:id="rId151"/>
+    <hyperlink ref="AJ82" r:id="rId152"/>
+    <hyperlink ref="AJ83" r:id="rId153"/>
+    <hyperlink ref="AJ159" r:id="rId154"/>
+    <hyperlink ref="AJ98" r:id="rId155"/>
+    <hyperlink ref="AJ152" r:id="rId156"/>
+    <hyperlink ref="AJ6" r:id="rId157"/>
+    <hyperlink ref="AJ11" r:id="rId158"/>
+    <hyperlink ref="AJ17" r:id="rId159"/>
+    <hyperlink ref="AJ25" r:id="rId160"/>
+    <hyperlink ref="AJ28" r:id="rId161"/>
+    <hyperlink ref="AJ32" r:id="rId162"/>
+    <hyperlink ref="AJ37" r:id="rId163"/>
+    <hyperlink ref="AJ39" r:id="rId164"/>
+    <hyperlink ref="AJ41" r:id="rId165"/>
+    <hyperlink ref="AJ44" r:id="rId166"/>
+    <hyperlink ref="AJ48" r:id="rId167"/>
+    <hyperlink ref="AJ52" r:id="rId168"/>
+    <hyperlink ref="AJ81" r:id="rId169"/>
+    <hyperlink ref="AJ85" r:id="rId170"/>
+    <hyperlink ref="AJ86" r:id="rId171"/>
+    <hyperlink ref="AJ87" r:id="rId172"/>
+    <hyperlink ref="AJ93" r:id="rId173"/>
+    <hyperlink ref="AJ95" r:id="rId174"/>
+    <hyperlink ref="AJ96" r:id="rId175"/>
+    <hyperlink ref="AJ118" r:id="rId176"/>
+    <hyperlink ref="AJ125" r:id="rId177"/>
+    <hyperlink ref="AJ133" r:id="rId178"/>
+    <hyperlink ref="AJ136" r:id="rId179"/>
+    <hyperlink ref="AJ138" r:id="rId180"/>
+    <hyperlink ref="AJ140" r:id="rId181"/>
+    <hyperlink ref="AJ150" r:id="rId182"/>
+    <hyperlink ref="AJ154" r:id="rId183"/>
+    <hyperlink ref="AJ176" r:id="rId184"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId185"/>
 </worksheet>
 </file>
 
